--- a/data/trans_bre/IMC_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Edad-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con obesidad</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/IMC_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.04445337817078898</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8068776533779867</v>
+        <v>0.8068776533779853</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.03133012439235646</v>
@@ -649,7 +649,7 @@
         <v>-0.009448680538530291</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1234806842022357</v>
+        <v>0.1234806842022355</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.021712899472178</v>
+        <v>-2.27850533943931</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.941876019918897</v>
+        <v>-3.123350002880096</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.030831362994526</v>
+        <v>-2.923587154542974</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.677265739312712</v>
+        <v>-4.937167301600348</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5956587780463255</v>
+        <v>-0.6219896274656149</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4510264149027471</v>
+        <v>-0.5058287562052167</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4757060686818383</v>
+        <v>-0.4912131249492898</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.509394950622639</v>
+        <v>-0.4993514201677997</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.767033713867451</v>
+        <v>1.89471208733045</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.761092455402212</v>
+        <v>2.7644706390148</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.907971425356519</v>
+        <v>2.987055119013984</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.223263688219176</v>
+        <v>6.434321442516601</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9971155946965202</v>
+        <v>1.008382564625711</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7569351011270219</v>
+        <v>0.7994622373962108</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9382246162363344</v>
+        <v>0.9370019636306929</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.628370138409024</v>
+        <v>1.792821121944676</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.80183265887274</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.00642389521975</v>
+        <v>1.006423895219746</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1372390833302065</v>
@@ -749,7 +749,7 @@
         <v>0.4392229570208945</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.09787504608749237</v>
+        <v>0.09787504608749195</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.036762515934003</v>
+        <v>-2.003550187220432</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.479151237967115</v>
+        <v>-0.6064299408193047</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03933386120204602</v>
+        <v>0.4506379091662328</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.863883033094508</v>
+        <v>-4.12466993367684</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2649193443665785</v>
+        <v>-0.251556329436859</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.05352515176336058</v>
+        <v>-0.05444566866695064</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.001583252485432801</v>
+        <v>0.0333457515364996</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.305915115741418</v>
+        <v>-0.3122846471057387</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.495962219612262</v>
+        <v>3.662269149490465</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.353262597061892</v>
+        <v>6.145378581506947</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.52213196888458</v>
+        <v>7.568163827819823</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.757903976602194</v>
+        <v>5.522517236488967</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6853050845029245</v>
+        <v>0.7161633379902063</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8005215995903012</v>
+        <v>0.7939590223244396</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.091126403644836</v>
+        <v>1.123220567760109</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7847468443255643</v>
+        <v>0.7199114123674407</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.6111671726374807</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.765396750060085</v>
+        <v>0.7653967500600822</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1817863516915267</v>
@@ -849,7 +849,7 @@
         <v>-0.04545124579477144</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.05291223227351459</v>
+        <v>0.0529122322735144</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.046720488056323</v>
+        <v>-5.587948788078101</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.700870125309234</v>
+        <v>-6.539037373254923</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.903680317363333</v>
+        <v>-5.212578873205759</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.383745727382027</v>
+        <v>-3.219054382440876</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3929227150319502</v>
+        <v>-0.3896600335032741</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3440672772253593</v>
+        <v>-0.3308109192912173</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2614892326916235</v>
+        <v>-0.3320969446944397</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2009122247932105</v>
+        <v>-0.1972911471388095</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.36225923699917</v>
+        <v>1.316142165377632</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.694679029471585</v>
+        <v>2.213135800123141</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.025929181695259</v>
+        <v>3.096797909668325</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.533747606975604</v>
+        <v>4.738275920960657</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1283735015525983</v>
+        <v>0.1126424464597648</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1129534454253575</v>
+        <v>0.1366391119313903</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2521297436296885</v>
+        <v>0.2695627290772691</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3771110920965862</v>
+        <v>0.3807460421888086</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-7.060823014059555</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.417721628251016</v>
+        <v>-3.417721628251014</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.005258355294462994</v>
@@ -949,7 +949,7 @@
         <v>-0.3018148896658053</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1684531316348314</v>
+        <v>-0.1684531316348313</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.529822237315343</v>
+        <v>-4.530943249104913</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.297305763756151</v>
+        <v>-2.648065364040816</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-11.57417862459879</v>
+        <v>-12.29513599015387</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.279449580407499</v>
+        <v>-7.624106973293107</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2641557710253459</v>
+        <v>-0.2601443919265312</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1044702477669872</v>
+        <v>-0.1143564861139441</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4437925436908948</v>
+        <v>-0.461792788194836</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3240325091862788</v>
+        <v>-0.3265317751300064</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.376847294956814</v>
+        <v>4.698826969731258</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.799271307010533</v>
+        <v>7.814191443740436</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-2.454263810229191</v>
+        <v>-2.58669579471798</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3273669006495719</v>
+        <v>0.3955290970387217</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3535213612178559</v>
+        <v>0.3969375806233051</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4560981860088021</v>
+        <v>0.4570804176500741</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1072187985071985</v>
+        <v>-0.123089542664671</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.02309815637193754</v>
+        <v>0.02428324137678345</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.86606315869078</v>
+        <v>-5.270722172375376</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.209571247114233</v>
+        <v>1.239612446372553</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.922434752762717</v>
+        <v>-3.622272860000531</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.908960231281201</v>
+        <v>-7.130735907793663</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2340304063052303</v>
+        <v>-0.2197540389885635</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0404273141859259</v>
+        <v>0.04843723971558288</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1082202530993095</v>
+        <v>-0.1425216034105153</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2568433585465038</v>
+        <v>-0.2673108831354918</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.260739909406618</v>
+        <v>6.325837351507572</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.16167256461843</v>
+        <v>13.30122642920686</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.929665500924093</v>
+        <v>8.542467371630043</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.072617961673962</v>
+        <v>1.6337562651148</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3389520830892065</v>
+        <v>0.3365546276010382</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7344404931067936</v>
+        <v>0.681893451629609</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4231040667082712</v>
+        <v>0.3983252940370466</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.05048282032985544</v>
+        <v>0.06923321148975403</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>3.260467420395907</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.011946184459964</v>
+        <v>1.011946184459969</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.849582413269284</v>
@@ -1149,7 +1149,7 @@
         <v>0.1155343834843236</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.04283303283914362</v>
+        <v>0.04283303283914387</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>8.003047113777233</v>
+        <v>7.74499120345414</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.695141180773217</v>
+        <v>7.235067167774802</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.902451214694923</v>
+        <v>-3.948580369078915</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.126507090642953</v>
+        <v>-4.528241472989787</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3853683292269418</v>
+        <v>0.37120681206933</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2555497408134882</v>
+        <v>0.2353274737803825</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1279294219837069</v>
+        <v>-0.1248042208202206</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1193869947157847</v>
+        <v>-0.1703254575248846</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.0838127391915</v>
+        <v>20.82731122310999</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.64066899183186</v>
+        <v>22.81026341149108</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10.44951761446029</v>
+        <v>9.994762035158219</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.831013411617052</v>
+        <v>5.145337681311987</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.582403902989173</v>
+        <v>1.544920079155699</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.044360084550158</v>
+        <v>1.027934216061449</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4348678111250794</v>
+        <v>0.4054746272598108</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2809252619206019</v>
+        <v>0.2447786391295446</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8717896938261469</v>
+        <v>0.4468126713172</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.785369545768991</v>
+        <v>2.765471546251375</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.860964344353288</v>
+        <v>5.771263857281431</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.630064570518148</v>
+        <v>1.813702015353956</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.03436887343102932</v>
+        <v>0.0106519059324145</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05268527795843739</v>
+        <v>0.07941456929330117</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1969966309787732</v>
+        <v>0.2294282788051994</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.09740223654215055</v>
+        <v>0.09489616162406392</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.99936480810955</v>
+        <v>16.64458787223264</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.52074277026158</v>
+        <v>18.9724566218592</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20.97292216474492</v>
+        <v>21.13377507541098</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.78225013046745</v>
+        <v>10.97019877106235</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9779746574337103</v>
+        <v>0.9498169289471758</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9438085038006009</v>
+        <v>0.9678002980017947</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.171817314313734</v>
+        <v>1.157856669400734</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.8064742427402771</v>
+        <v>0.8103914697030362</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.040408889757528</v>
+        <v>1.108522235356534</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.412920654646788</v>
+        <v>2.55817953665653</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.2256521792524214</v>
+        <v>-0.09439023212787739</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.475564734528094</v>
+        <v>-1.515306512162591</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.07588936386131169</v>
+        <v>0.08327168010072468</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1342276826998527</v>
+        <v>0.1474310973507306</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01203815569594798</v>
+        <v>-0.005194121065054586</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.08190563946634058</v>
+        <v>-0.08382820211868108</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.414473657045632</v>
+        <v>4.520782258611498</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.314441720366239</v>
+        <v>6.498190867356904</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.628859757813482</v>
+        <v>3.795761184498107</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.95720338232621</v>
+        <v>1.871859980577785</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3880958919058426</v>
+        <v>0.3955020132755133</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4038303048706812</v>
+        <v>0.4129541034181015</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2288753262875701</v>
+        <v>0.2378638699364046</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1228808425071478</v>
+        <v>0.1184428995840541</v>
       </c>
     </row>
     <row r="28">
